--- a/Manual Test Report/Manual Test Cases.xlsx
+++ b/Manual Test Report/Manual Test Cases.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujteotia/Desktop/assignment-rf-selenium-pom/assignment-rf-selenium-pom/Manual Test Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A620464A-55CD-A44C-A835-7AC22066045D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FAE94-6AA3-6748-B441-F7E2295FC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="21600" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
-    <sheet name="Execution Graph" sheetId="3" r:id="rId2"/>
+    <sheet name="Manual Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Execution Summary" sheetId="3" r:id="rId2"/>
+    <sheet name="Automated Test Cases" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Automated Test Cases'!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>Test Case Summary</t>
   </si>
@@ -333,9 +337,6 @@
 11. Sign In Must Be Successful</t>
   </si>
   <si>
-    <t>Sign In Fails with: email or password is invalid</t>
-  </si>
-  <si>
     <t>Crawl Website With Reload</t>
   </si>
   <si>
@@ -375,12 +376,366 @@
     <t>PASSED 
 WITH REMARKS</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After reload Pagination is always set to First Page
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P3 Bug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unable to follow User
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1 Bug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unable to add Favorite.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1 Bug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User Is able to create an empty Article.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Low priority Bug </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Website return: {"errors":{"message":"Not Found","error":{"status":404}}}
+This Holds true for any navigation after Sign In as well
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1 Bug</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After SignUp user must get a message that Signup is successful . User Can Sign In using the Signed Up Creadentails. Instead User is getting signed In.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Improvement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sign In Fails with: email or password is invalid
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1 Bug</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Bug Summary</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Unable to add favorite</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>ign In Fails with: email or password is invalid</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">author's favorite articles aren't populated
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P2 Bug</t>
+    </r>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Execution Report</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>functionality</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Get List Of Articles</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Create A New Article</t>
+  </si>
+  <si>
+    <t>Get List Of Tags</t>
+  </si>
+  <si>
+    <t>Authenticate Existing User</t>
+  </si>
+  <si>
+    <t>Register New User</t>
+  </si>
+  <si>
+    <t>Get Current Signed In User</t>
+  </si>
+  <si>
+    <t>Update The Details Of Existing User</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">500, Internal Server Error
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>P1 Bug</t>
+    </r>
+  </si>
+  <si>
+    <t>Create New Article</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    And Validate Title In Home Page
+    When Open Sign In Page
+    Then Validate Login Url
+    And Enter Sign In Email Id   ${login_emailId}
+    And Enter Sign In Password   ${login_pwd}
+    Then Click Sign In Button
+    And Verify Signed In
+    When Click On New Article Text
+    And Validate New Article Page
+    Then Enter Article Title   ${art_title}
+    And Enter Article Description   ${art_description}
+    And Write Article Body   ${art_body}
+    And Enter Article Tag   ${art_tag}
+    Then Click Publish Article Button
+    And Verify Created Article Url   ${art_title}
+    And Verify Edit Article Button
+    And Verify Delete Article Button
+    And Verify Comment Text Box
+    And Verify Post Comment Button</t>
+  </si>
+  <si>
+    <t>Update Existing Article</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    And Validate Title In Home Page
+    When Open Sign In Page
+    Then Validate Login Url
+    And Enter Sign In Email Id   ${login_emailId}
+    And Enter Sign In Password   ${login_pwd}
+    Then Click Sign In Button
+    And Verify Signed In
+    Then Open User Profile
+    And Get Logged In User Name
+    And Validate User Profile Url
+    Then Open My Posts
+    And Read First Article From User Profile
+    And Verify Created Article Url   ${art_title}
+    Then And Verify Edit Article Button
+    And Click On Edit Article Button
+    Then Verify Edit Article Url   ${art_title}
+    And Update Article Body   ${updated_txt}
+    And Validate Updated Article   ${updated_txt}</t>
+  </si>
+  <si>
+    <t>Delete Existing Article</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    And Validate Title In Home Page
+    When Open Sign In Page
+    Then Validate Login Url
+    And Enter Sign In Email Id   ${login_emailId}
+    And Enter Sign In Password   ${login_pwd}
+    Then Click Sign In Button
+    And Verify Signed In
+    Then Open User Profile
+    And Get Logged In User Name
+    And Validate User Profile Url
+    Then Open My Posts
+    And Check Count Of Articles
+    And Read First Article From User Profile
+    And Verify Created Article Url   ${art_title}
+    Then Verify Delete Article Button
+    And Click On Delete Article Button
+    Then Open User Profile
+    And Check Number Of Articles After Deletion</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    And Validate Title In Home Page
+    When Open Sign In Page
+    Then Validate Login Url
+    And Enter Sign In Email Id   ${login_emailId}
+    And Enter Sign In Password   ${login_pwd}
+    Then Click Sign In Button
+    And Verify Signed In
+    And Get Signed In User Name
+    Then Click On Global Feed
+    And Navigate To Other Author's Article
+    And Validate Delete Article Option Is Not Available</t>
+  </si>
+  <si>
+    <t>Validate Home Page</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    Then Validate Title In Home Page
+    And Validate Tags are present
+    And List Of Articles Is Present
+    And Validate Pagination On Home Page</t>
+  </si>
+  <si>
+    <t>Sign In For Registered User</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    And Validate Title In Home Page
+    When Open Sign In Page
+    Then Validate Login Url
+    And Enter Sign In Email Id   ${login_emailId}
+    And Enter Sign In Password   ${login_pwd}
+    Then Click Sign In Button
+    And Verify Signed In</t>
+  </si>
+  <si>
+    <t>Register A User</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    When Validate Title In Home Page
+    And Open Sign Up Page
+    Then Validate Register Url
+    And Enter User Name
+    And Enter Email Id
+    And Enter Password   ${login_pwd}
+    Then Click Sign Up Button
+    And Verify Sign Up   ${login_username}</t>
+  </si>
+  <si>
+    <t>Validate Settings Page</t>
+  </si>
+  <si>
+    <t>Given I Open '${site_url}' in '${browser}' Browser
+    And Validate Title In Home Page
+    When Open Sign In Page
+    Then Validate Login Url
+    And Enter Sign In Email Id   ${login_emailId}
+    And Enter Sign In Password   ${login_pwd}
+    Then Click Sign In Button
+    And Verify Signed In
+    Then Open Settings Page
+    And Validate Settings Page Url
+    And Validate Settings Title</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -428,8 +783,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,8 +831,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -472,11 +867,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,9 +964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,12 +997,233 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -580,28 +1278,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -819,6 +1495,24 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7FB9-4C8B-99B1-9FD6D5256BFF}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -851,10 +1545,12 @@
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="0"/>
+            <c:showCatName val="1"/>
             <c:showSerName val="0"/>
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
@@ -876,7 +1572,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Execution Graph'!$B$4:$B$7</c:f>
+              <c:f>'Execution Summary'!$B$4:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -897,7 +1593,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Execution Graph'!$C$4:$C$7</c:f>
+              <c:f>'Execution Summary'!$C$4:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1573,16 +2269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>41275</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3174</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1614,21 +2310,34 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{49354FD5-AA85-43C5-865D-6F2EA5968036}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0">
   <autoFilter ref="A1:E23" xr:uid="{72F9985F-AF97-4959-BC5A-129AAEFB083D}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9B18D34E-4D0D-4F2D-A40D-EE3D202DAD23}" name="S.No" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{203EDFFB-8493-4104-8601-CAA20EF7ED8B}" name="Test Case Summary" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{5E2A0C2B-EEA1-4C09-A1DD-AA3D45C0EA88}" name="Test Steps" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{5E2CB28E-3795-46C4-A86C-D018C6FC6E25}" name="Execution Status" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{3CDC4995-41F8-4D58-89C6-68B47A631DD3}" name="Remarks" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{9B18D34E-4D0D-4F2D-A40D-EE3D202DAD23}" name="S.No" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{203EDFFB-8493-4104-8601-CAA20EF7ED8B}" name="Test Case Summary" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{5E2A0C2B-EEA1-4C09-A1DD-AA3D45C0EA88}" name="Test Steps" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{5E2CB28E-3795-46C4-A86C-D018C6FC6E25}" name="Execution Status" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{3CDC4995-41F8-4D58-89C6-68B47A631DD3}" name="Remarks" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167817BA-5C02-4FB9-AC2A-01D37B5176F4}" name="Table14" displayName="Table14" ref="C3:C7" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167817BA-5C02-4FB9-AC2A-01D37B5176F4}" name="Table14" displayName="Table14" ref="C3:C7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="C3:C7" xr:uid="{D739CBC7-DE9B-4888-8169-398C25FBA8B3}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{C6825CE4-7654-407F-8DF7-E00BA9958E82}" name="No Of Tests" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{C6825CE4-7654-407F-8DF7-E00BA9958E82}" name="No Of Tests" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E10A6E5E-03DA-1844-B023-58D8E7D82632}" name="Table1" displayName="Table1" ref="A13:D20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+  <autoFilter ref="A13:D20" xr:uid="{E10A6E5E-03DA-1844-B023-58D8E7D82632}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{34E98207-A81D-024C-9C0B-794476BE5870}" name="S.No" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{06F25224-7243-A341-9F92-261410704750}" name="Test Case" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EF2C6FA4-2133-154A-A428-0534B327B5F2}" name="Bug Summary" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B2B4BC08-AB7C-7E4B-BED0-38640A5DC056}" name="Priority" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1899,15 +2608,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9939D1-F68A-4B67-A58E-DCB0472ADAAC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="10.33203125" customWidth="1"/>
@@ -1921,7 +2630,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1938,14 +2647,14 @@
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
+      <c r="E2" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -1955,10 +2664,10 @@
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2"/>
@@ -1970,10 +2679,10 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2"/>
@@ -1985,13 +2694,13 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1999,13 +2708,13 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="2"/>
@@ -2017,14 +2726,14 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>57</v>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -2034,14 +2743,14 @@
       <c r="B8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.2">
@@ -2051,14 +2760,14 @@
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>58</v>
+      <c r="E9" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="160" x14ac:dyDescent="0.2">
@@ -2068,14 +2777,14 @@
       <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -2085,29 +2794,29 @@
       <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>30</v>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="176" x14ac:dyDescent="0.2">
@@ -2117,10 +2826,10 @@
       <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="2"/>
@@ -2132,10 +2841,10 @@
       <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="2"/>
@@ -2147,10 +2856,10 @@
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="2"/>
@@ -2159,32 +2868,32 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>42</v>
+      <c r="E17" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.2">
@@ -2192,12 +2901,12 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="2"/>
@@ -2209,14 +2918,14 @@
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>46</v>
+      <c r="E19" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -2226,10 +2935,10 @@
       <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="2"/>
@@ -2241,10 +2950,10 @@
       <c r="B21" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="2"/>
@@ -2256,14 +2965,14 @@
       <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>53</v>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="128" x14ac:dyDescent="0.2">
@@ -2271,16 +2980,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>61</v>
+      <c r="E23" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2294,63 +3003,506 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544DB49C-D829-4D9E-86BA-8A22627810E8}">
-  <dimension ref="B3:C7"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="12" t="s">
+      <c r="C3" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B5" s="13" t="s">
-        <v>63</v>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:4" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
       </c>
     </row>
+    <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>4</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="96" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>7</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="26" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:I24"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208171D1-7444-054A-9E8B-0C16FC369AD1}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.33203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="28">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="28">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="26">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="26">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="26"/>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="26">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36"/>
+      <c r="C8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="320" x14ac:dyDescent="0.2">
+      <c r="A9" s="26">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="26"/>
+    </row>
+    <row r="10" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="A10" s="26">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35"/>
+      <c r="C10" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="26"/>
+    </row>
+    <row r="12" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="26">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27"/>
+    </row>
+    <row r="14" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+      <c r="A14" s="26">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+      <c r="A15" s="26">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="176" x14ac:dyDescent="0.2">
+      <c r="A16" s="26">
+        <v>15</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="28"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{208171D1-7444-054A-9E8B-0C16FC369AD1}"/>
+  <mergeCells count="9">
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/Manual Test Report/Manual Test Cases.xlsx
+++ b/Manual Test Report/Manual Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anujteotia/Desktop/assignment-rf-selenium-pom/assignment-rf-selenium-pom/Manual Test Report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248FAE94-6AA3-6748-B441-F7E2295FC21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959902A1-1B14-2846-9735-3F4E4A10B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4480" yWindow="21600" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual Test Cases" sheetId="2" r:id="rId1"/>
@@ -1025,39 +1025,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,36 +1091,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1185,30 +1169,33 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1216,12 +1203,8 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1297,6 +1280,23 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1373,6 +1373,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Manual Test</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Execution Report</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1386,11 +1416,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1417,12 +1447,16 @@
               <a:solidFill>
                 <a:srgbClr val="00B050"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1435,16 +1469,18 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:tint val="86000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1461,12 +1497,16 @@
                   <a:lumMod val="65000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1481,12 +1521,16 @@
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1495,30 +1539,31 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:separator>
-</c:separator>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7FB9-4C8B-99B1-9FD6D5256BFF}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
-              <a:noFill/>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
@@ -1527,12 +1572,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
+                      <a:schemeClr val="lt1"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1554,14 +1596,13 @@
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
               <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:ln w="9525">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:round/>
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
@@ -1639,10 +1680,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1655,9 +1701,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1684,38 +1730,27 @@
     <a:gradFill flip="none" rotWithShape="1">
       <a:gsLst>
         <a:gs pos="0">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="lt1"/>
         </a:gs>
-        <a:gs pos="74000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="45000"/>
-            <a:lumOff val="55000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="83000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="45000"/>
-            <a:lumOff val="55000"/>
-          </a:schemeClr>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
         </a:gs>
         <a:gs pos="100000">
-          <a:schemeClr val="accent3">
-            <a:lumMod val="30000"/>
-            <a:lumOff val="70000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:gs>
       </a:gsLst>
-      <a:lin ang="5400000" scaled="1"/>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
       <a:tileRect/>
     </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1747,58 +1782,74 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1811,73 +1862,110 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -1887,37 +1975,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="31750" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -1925,7 +2013,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1941,21 +2029,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1965,23 +2051,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1990,17 +2075,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2009,12 +2094,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2028,30 +2113,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2061,17 +2152,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2080,17 +2182,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2099,17 +2201,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2118,27 +2219,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2146,11 +2255,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2158,14 +2278,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2177,12 +2297,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2191,14 +2311,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2207,9 +2326,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2219,20 +2338,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2241,11 +2359,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2253,14 +2376,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2312,32 +2429,32 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9B18D34E-4D0D-4F2D-A40D-EE3D202DAD23}" name="S.No" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{203EDFFB-8493-4104-8601-CAA20EF7ED8B}" name="Test Case Summary" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{5E2A0C2B-EEA1-4C09-A1DD-AA3D45C0EA88}" name="Test Steps" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{5E2CB28E-3795-46C4-A86C-D018C6FC6E25}" name="Execution Status" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{3CDC4995-41F8-4D58-89C6-68B47A631DD3}" name="Remarks" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{5E2A0C2B-EEA1-4C09-A1DD-AA3D45C0EA88}" name="Test Steps" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{5E2CB28E-3795-46C4-A86C-D018C6FC6E25}" name="Execution Status" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{3CDC4995-41F8-4D58-89C6-68B47A631DD3}" name="Remarks" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167817BA-5C02-4FB9-AC2A-01D37B5176F4}" name="Table14" displayName="Table14" ref="C3:C7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167817BA-5C02-4FB9-AC2A-01D37B5176F4}" name="Table14" displayName="Table14" ref="C3:C7" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="C3:C7" xr:uid="{D739CBC7-DE9B-4888-8169-398C25FBA8B3}"/>
   <tableColumns count="1">
-    <tableColumn id="2" xr3:uid="{C6825CE4-7654-407F-8DF7-E00BA9958E82}" name="No Of Tests" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C6825CE4-7654-407F-8DF7-E00BA9958E82}" name="No Of Tests" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E10A6E5E-03DA-1844-B023-58D8E7D82632}" name="Table1" displayName="Table1" ref="A13:D20" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E10A6E5E-03DA-1844-B023-58D8E7D82632}" name="Table1" displayName="Table1" ref="A13:D20" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A13:D20" xr:uid="{E10A6E5E-03DA-1844-B023-58D8E7D82632}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{34E98207-A81D-024C-9C0B-794476BE5870}" name="S.No" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{06F25224-7243-A341-9F92-261410704750}" name="Test Case" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{EF2C6FA4-2133-154A-A428-0534B327B5F2}" name="Bug Summary" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B2B4BC08-AB7C-7E4B-BED0-38640A5DC056}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{34E98207-A81D-024C-9C0B-794476BE5870}" name="S.No" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{06F25224-7243-A341-9F92-261410704750}" name="Test Case" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{EF2C6FA4-2133-154A-A428-0534B327B5F2}" name="Bug Summary" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B2B4BC08-AB7C-7E4B-BED0-38640A5DC056}" name="Priority" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2608,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9939D1-F68A-4B67-A58E-DCB0472ADAAC}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3005,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{544DB49C-D829-4D9E-86BA-8A22627810E8}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3018,10 +3135,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="24"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
@@ -3064,12 +3181,12 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="26" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
@@ -3184,23 +3301,23 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="26" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3223,8 +3340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208171D1-7444-054A-9E8B-0C16FC369AD1}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3238,256 +3355,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="27"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="28">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="42"/>
+      <c r="E3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="28"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="29" t="s">
+      <c r="D5" s="42"/>
+      <c r="E5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26">
+      <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="26">
+      <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="42"/>
+      <c r="E7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="41" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="320" x14ac:dyDescent="0.2">
-      <c r="A9" s="26">
+      <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" ht="304" x14ac:dyDescent="0.2">
-      <c r="A10" s="26">
+      <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="304" x14ac:dyDescent="0.2">
-      <c r="A11" s="26">
+      <c r="A11" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="37"/>
+      <c r="C11" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A12" s="26">
+      <c r="A12" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A13" s="26">
+      <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="37"/>
+      <c r="C13" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A14" s="26">
+      <c r="A14" s="23">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="37"/>
+      <c r="C14" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="23">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="26" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" ht="176" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1" xr:uid="{208171D1-7444-054A-9E8B-0C16FC369AD1}"/>
